--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Flexure Reinforcement Calcualtion/Canillever Reatining Wall.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Flexure Reinforcement Calcualtion/Canillever Reatining Wall.xlsx
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -743,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -775,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -807,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="1">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -839,7 +839,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="1">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
